--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -86,51 +86,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>[Introduction to R Markdown](https://crumplab.github.io/statistics/why-statistics.html)</t>
-  </si>
-  <si>
-    <t>[Basic Programming in R I](https://crumplab.github.io/statistics/DescribingData.html)</t>
-  </si>
-  <si>
-    <t>[Basic Programming in R II](https://crumplab.github.io/statistics/Correlation.html)</t>
-  </si>
-  <si>
-    <t>[Data-Wrangling](https://crumplab.github.io/statistics/probability-sampling-and-estimation.html)</t>
-  </si>
-  <si>
-    <t>[Data-Visualization](https://crumplab.github.io/statistics/foundations-for-inference.html)</t>
-  </si>
-  <si>
-    <t>[Common inferential tests](https://crumplab.github.io/statistics/t-tests.html)</t>
-  </si>
-  <si>
-    <t>[Data Simulation](https://crumplab.github.io/statistics/thinking-about-answering-questions-with-data.html)</t>
-  </si>
-  <si>
-    <t>[Shiny Web Apps](https://crumplab.github.io/statistics/anova.html)</t>
-  </si>
-  <si>
-    <t>[Optimizing R Scripts](https://crumplab.github.io/statistics/repeated-measures-anova.html)</t>
-  </si>
-  <si>
-    <t>[Open Science](https://crumplab.github.io/statistics/factorial-anova.html)</t>
-  </si>
-  <si>
-    <t>[APA Papers with papaja](https://crumplab.github.io/statistics/more-on-factorial-designs.html)</t>
-  </si>
-  <si>
-    <t>[R Markdown Presentations](https://crumplab.github.io/statistics/more-on-factorial-designs.html)</t>
-  </si>
-  <si>
-    <t>[Bookdown](https://crumplab.github.io/statistics/more-on-factorial-designs.html)</t>
-  </si>
-  <si>
-    <t>[Final Project Presentations](https://crumplab.github.io/statistics/more-on-factorial-designs.html)</t>
-  </si>
-  <si>
-    <t>[Getting Started]()</t>
-  </si>
-  <si>
     <t>Before class</t>
   </si>
   <si>
@@ -138,6 +93,51 @@
   </si>
   <si>
     <t>Spring Recess</t>
+  </si>
+  <si>
+    <t>[Getting Started](https://crumplab.github.io/psyc7709/Schedule.html#getting_started)</t>
+  </si>
+  <si>
+    <t>[Introduction to R Markdown](https://crumplab.github.io/psyc7709/Schedule.html#1_r,_r_markdown,_websites,__github)</t>
+  </si>
+  <si>
+    <t>[Basic Programming in R I](https://crumplab.github.io/psyc7709/Schedule.html#2_basic_programming_in_r_i)</t>
+  </si>
+  <si>
+    <t>[Basic Programming in R II](https://crumplab.github.io/psyc7709/Schedule.html#3_basic_programming_in_r_ii)</t>
+  </si>
+  <si>
+    <t>[Data-Wrangling](https://crumplab.github.io/psyc7709/Schedule.html#4_data-wrangling)</t>
+  </si>
+  <si>
+    <t>[Data-Visualization](https://crumplab.github.io/psyc7709/Schedule.html#5_data-visualization)</t>
+  </si>
+  <si>
+    <t>[Common inferential tests](https://crumplab.github.io/psyc7709/Schedule.html#6_common_inferential_tests)</t>
+  </si>
+  <si>
+    <t>[Data Simulation](https://crumplab.github.io/psyc7709/Schedule.html#7_data_simulation)</t>
+  </si>
+  <si>
+    <t>[Shiny Web Apps](https://crumplab.github.io/psyc7709/Schedule.html#8_shiny_web_apps)</t>
+  </si>
+  <si>
+    <t>[Optimizing R Scripts](https://crumplab.github.io/psyc7709/Schedule.html#9_optimizing_r_scripts)</t>
+  </si>
+  <si>
+    <t>[Open Science](https://crumplab.github.io/psyc7709/Schedule.html#10_open_science_and_final_project_planning)</t>
+  </si>
+  <si>
+    <t>[APA Papers with papaja](https://crumplab.github.io/psyc7709/Schedule.html#11_apa_papers_using_papaja)</t>
+  </si>
+  <si>
+    <t>[R Markdown Presentations](https://crumplab.github.io/psyc7709/Schedule.html#12_r_markdown_presentations)</t>
+  </si>
+  <si>
+    <t>[Bookdown](https://crumplab.github.io/psyc7709/Schedule.html#13_r_markdown_books)</t>
+  </si>
+  <si>
+    <t>[Final Project Presentations](https://crumplab.github.io/psyc7709/Schedule.html#14_presentations)</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,10 +478,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -503,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -533,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -544,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -555,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -577,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -610,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-1040" yWindow="460" windowWidth="15520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Week</t>
   </si>
@@ -119,18 +119,6 @@
     <t>[Data Simulation](https://crumplab.github.io/psyc7709/Schedule.html#7_data_simulation)</t>
   </si>
   <si>
-    <t>[Shiny Web Apps](https://crumplab.github.io/psyc7709/Schedule.html#8_shiny_web_apps)</t>
-  </si>
-  <si>
-    <t>[Optimizing R Scripts](https://crumplab.github.io/psyc7709/Schedule.html#9_optimizing_r_scripts)</t>
-  </si>
-  <si>
-    <t>[Open Science](https://crumplab.github.io/psyc7709/Schedule.html#10_open_science_and_final_project_planning)</t>
-  </si>
-  <si>
-    <t>[APA Papers with papaja](https://crumplab.github.io/psyc7709/Schedule.html#11_apa_papers_using_papaja)</t>
-  </si>
-  <si>
     <t>[R Markdown Presentations](https://crumplab.github.io/psyc7709/Schedule.html#12_r_markdown_presentations)</t>
   </si>
   <si>
@@ -138,6 +126,60 @@
   </si>
   <si>
     <t>[Final Project Presentations](https://crumplab.github.io/psyc7709/Schedule.html#14_presentations)</t>
+  </si>
+  <si>
+    <t>Assignments</t>
+  </si>
+  <si>
+    <t>Midterm project due</t>
+  </si>
+  <si>
+    <t>Presentations due</t>
+  </si>
+  <si>
+    <t>Final project due</t>
+  </si>
+  <si>
+    <t>M May 20</t>
+  </si>
+  <si>
+    <t>week I due (website)</t>
+  </si>
+  <si>
+    <t>week 2 due (basics I)</t>
+  </si>
+  <si>
+    <t>week 3 due (basics II)</t>
+  </si>
+  <si>
+    <t>week 4 due (data-wrangling)</t>
+  </si>
+  <si>
+    <t>week 5 due (data-vis)</t>
+  </si>
+  <si>
+    <t>week 6 due (stats)</t>
+  </si>
+  <si>
+    <t>week 9 due (shiny)</t>
+  </si>
+  <si>
+    <t>week 10 due (optimization)</t>
+  </si>
+  <si>
+    <t>[APA Papers with papaja](https://crumplab.github.io/psyc7709/Schedule.html#8_apa_papers_using_papaja)</t>
+  </si>
+  <si>
+    <t>[Shiny Web Apps](https://crumplab.github.io/psyc7709/Schedule.html#9_shiny_web_apps)</t>
+  </si>
+  <si>
+    <t>[Optimizing R Scripts](https://crumplab.github.io/psyc7709/Schedule.html#10_optimizing_r_scripts)</t>
+  </si>
+  <si>
+    <t>[Open Science and Final project planning](https://crumplab.github.io/psyc7709/Schedule.html#11_open_science_and_final_project_planning)</t>
+  </si>
+  <si>
+    <t>[Final Project Papers due]()</t>
   </si>
 </sst>
 </file>
@@ -173,8 +215,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,205 +497,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.1640625" customWidth="1"/>
+    <col min="3" max="3" width="71.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -179,7 +179,7 @@
     <t>[Open Science and Final project planning](https://crumplab.github.io/psyc7709/Schedule.html#11_open_science_and_final_project_planning)</t>
   </si>
   <si>
-    <t>[Final Project Papers due]()</t>
+    <t>[Final Project Papers due](https://crumplab.github.io/psyc7709/Schedule.html#15_final_project)</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,9 +645,6 @@
       <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -659,6 +656,9 @@
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -732,7 +732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1040" yWindow="460" windowWidth="15520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="23220" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,12 +107,6 @@
     <t>[Basic Programming in R II](https://crumplab.github.io/psyc7709/Schedule.html#3_basic_programming_in_r_ii)</t>
   </si>
   <si>
-    <t>[Data-Wrangling](https://crumplab.github.io/psyc7709/Schedule.html#4_data-wrangling)</t>
-  </si>
-  <si>
-    <t>[Data-Visualization](https://crumplab.github.io/psyc7709/Schedule.html#5_data-visualization)</t>
-  </si>
-  <si>
     <t>[Common inferential tests](https://crumplab.github.io/psyc7709/Schedule.html#6_common_inferential_tests)</t>
   </si>
   <si>
@@ -152,12 +146,6 @@
     <t>week 3 due (basics II)</t>
   </si>
   <si>
-    <t>week 4 due (data-wrangling)</t>
-  </si>
-  <si>
-    <t>week 5 due (data-vis)</t>
-  </si>
-  <si>
     <t>week 6 due (stats)</t>
   </si>
   <si>
@@ -180,6 +168,18 @@
   </si>
   <si>
     <t>[Final Project Papers due](https://crumplab.github.io/psyc7709/Schedule.html#15_final_project)</t>
+  </si>
+  <si>
+    <t>[Data-Visualization](https://crumplab.github.io/psyc7709/Schedule.html#4_data-visualization)</t>
+  </si>
+  <si>
+    <t>[Data-Wrangling](https://crumplab.github.io/psyc7709/Schedule.html#5_data-wrangling)</t>
+  </si>
+  <si>
+    <t>week 4 due (data-vis)</t>
+  </si>
+  <si>
+    <t>week 5 due (data-wrangling)</t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,7 +521,7 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -554,7 +554,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -568,7 +568,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -587,10 +587,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -601,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -615,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -629,10 +629,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -654,10 +654,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -682,10 +682,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -704,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -726,10 +726,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -737,13 +737,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="23220" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Week</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>week 5 due (data-wrangling)</t>
+  </si>
+  <si>
+    <t>Snow day (make up W May 15th)</t>
+  </si>
+  <si>
+    <t>W May 15</t>
   </si>
 </sst>
 </file>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,51 +599,45 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -645,104 +645,118 @@
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>34</v>
       </c>
     </row>
